--- a/Ac27.xlsx
+++ b/Ac27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b62bb73bd0b90a02/ElectionsTamil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{604C95D2-4813-4C79-AFEE-48469EF34B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07254D8-811E-4B34-9F3F-EC12E83E6519}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="8_{604C95D2-4813-4C79-AFEE-48469EF34B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACFA9BD5-E1FD-400A-B45D-C2722B2DEEF6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{296E09C5-BB00-4767-AFC6-5DD242BD0F1B}"/>
   </bookViews>
@@ -1014,9 +1014,6 @@
     <t>IND_Votes</t>
   </si>
   <si>
-    <t>Sl.No</t>
-  </si>
-  <si>
     <t>Polling_Station</t>
   </si>
   <si>
@@ -1033,6 +1030,9 @@
   </si>
   <si>
     <t>Tendered_Votes</t>
+  </si>
+  <si>
+    <t>Sl_No</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B999FCE1-0606-41B5-BEC4-90D93D9AFB05}">
   <dimension ref="A1:AI853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB481" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,10 +1469,10 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>317</v>
@@ -1553,19 +1553,19 @@
         <v>325</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="2"/>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="1">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="AG35" s="1">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="1">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AG36" s="1">
         <v>0</v>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="1">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="AG37" s="1">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="AG38" s="1">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="AG39" s="1">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="1">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AG40" s="1">
         <v>0</v>
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="1">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="AG41" s="1">
         <v>0</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="1">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="AG42" s="1">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="1">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AG43" s="1">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="1">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="AG44" s="1">
         <v>0</v>
@@ -6094,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="1">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="AG45" s="1">
         <v>0</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="1">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="AG46" s="1">
         <v>0</v>
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="1">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AG47" s="1">
         <v>0</v>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="1">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AG48" s="1">
         <v>0</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="1">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AG49" s="1">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="AF50" s="1">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="AG50" s="1">
         <v>0</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="1">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="AG51" s="1">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="1">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="AG52" s="1">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="1">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="AG53" s="1">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="1">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="AG54" s="1">
         <v>0</v>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="1">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AG55" s="1">
         <v>0</v>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="1">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="AG56" s="1">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="AF57" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
@@ -7408,7 +7408,9 @@
       <c r="AE58" s="1">
         <v>0</v>
       </c>
-      <c r="AF58" s="1"/>
+      <c r="AF58" s="1">
+        <v>510</v>
+      </c>
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
@@ -7497,7 +7499,9 @@
       <c r="AE59" s="1">
         <v>0</v>
       </c>
-      <c r="AF59" s="1"/>
+      <c r="AF59" s="1">
+        <v>419</v>
+      </c>
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
@@ -7586,7 +7590,9 @@
       <c r="AE60" s="1">
         <v>0</v>
       </c>
-      <c r="AF60" s="1"/>
+      <c r="AF60" s="1">
+        <v>452</v>
+      </c>
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
@@ -7675,7 +7681,9 @@
       <c r="AE61" s="1">
         <v>0</v>
       </c>
-      <c r="AF61" s="1"/>
+      <c r="AF61" s="1">
+        <v>353</v>
+      </c>
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
@@ -7764,7 +7772,9 @@
       <c r="AE62" s="1">
         <v>0</v>
       </c>
-      <c r="AF62" s="1"/>
+      <c r="AF62" s="1">
+        <v>311</v>
+      </c>
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
@@ -7853,7 +7863,9 @@
       <c r="AE63" s="1">
         <v>0</v>
       </c>
-      <c r="AF63" s="1"/>
+      <c r="AF63" s="1">
+        <v>302</v>
+      </c>
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
@@ -7942,7 +7954,9 @@
       <c r="AE64" s="1">
         <v>0</v>
       </c>
-      <c r="AF64" s="1"/>
+      <c r="AF64" s="1">
+        <v>371</v>
+      </c>
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
@@ -8031,7 +8045,9 @@
       <c r="AE65" s="1">
         <v>0</v>
       </c>
-      <c r="AF65" s="1"/>
+      <c r="AF65" s="1">
+        <v>351</v>
+      </c>
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
@@ -8120,7 +8136,9 @@
       <c r="AE66" s="1">
         <v>0</v>
       </c>
-      <c r="AF66" s="1"/>
+      <c r="AF66" s="1">
+        <v>443</v>
+      </c>
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
@@ -8209,7 +8227,9 @@
       <c r="AE67" s="1">
         <v>0</v>
       </c>
-      <c r="AF67" s="1"/>
+      <c r="AF67" s="1">
+        <v>400</v>
+      </c>
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
@@ -8298,7 +8318,9 @@
       <c r="AE68" s="1">
         <v>0</v>
       </c>
-      <c r="AF68" s="1"/>
+      <c r="AF68" s="1">
+        <v>498</v>
+      </c>
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
       <c r="AI68" s="2"/>
@@ -8387,7 +8409,9 @@
       <c r="AE69" s="1">
         <v>0</v>
       </c>
-      <c r="AF69" s="1"/>
+      <c r="AF69" s="1">
+        <v>316</v>
+      </c>
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
@@ -8476,7 +8500,9 @@
       <c r="AE70" s="1">
         <v>0</v>
       </c>
-      <c r="AF70" s="1"/>
+      <c r="AF70" s="1">
+        <v>270</v>
+      </c>
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
@@ -8565,7 +8591,9 @@
       <c r="AE71" s="1">
         <v>0</v>
       </c>
-      <c r="AF71" s="1"/>
+      <c r="AF71" s="1">
+        <v>389</v>
+      </c>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
@@ -8654,7 +8682,9 @@
       <c r="AE72" s="1">
         <v>0</v>
       </c>
-      <c r="AF72" s="1"/>
+      <c r="AF72" s="1">
+        <v>374</v>
+      </c>
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
@@ -8743,7 +8773,9 @@
       <c r="AE73" s="1">
         <v>0</v>
       </c>
-      <c r="AF73" s="1"/>
+      <c r="AF73" s="1">
+        <v>328</v>
+      </c>
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
@@ -8832,7 +8864,9 @@
       <c r="AE74" s="1">
         <v>0</v>
       </c>
-      <c r="AF74" s="1"/>
+      <c r="AF74" s="1">
+        <v>305</v>
+      </c>
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
       <c r="AI74" s="2"/>
@@ -8921,7 +8955,9 @@
       <c r="AE75" s="1">
         <v>0</v>
       </c>
-      <c r="AF75" s="1"/>
+      <c r="AF75" s="1">
+        <v>377</v>
+      </c>
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
       <c r="AI75" s="2"/>
@@ -9010,7 +9046,9 @@
       <c r="AE76" s="1">
         <v>0</v>
       </c>
-      <c r="AF76" s="1"/>
+      <c r="AF76" s="1">
+        <v>340</v>
+      </c>
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
       <c r="AI76" s="2"/>
@@ -9099,7 +9137,9 @@
       <c r="AE77" s="1">
         <v>0</v>
       </c>
-      <c r="AF77" s="1"/>
+      <c r="AF77" s="1">
+        <v>401</v>
+      </c>
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
       <c r="AI77" s="2"/>
@@ -9188,7 +9228,9 @@
       <c r="AE78" s="1">
         <v>0</v>
       </c>
-      <c r="AF78" s="1"/>
+      <c r="AF78" s="1">
+        <v>335</v>
+      </c>
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
       <c r="AI78" s="2"/>
@@ -9277,7 +9319,9 @@
       <c r="AE79" s="1">
         <v>0</v>
       </c>
-      <c r="AF79" s="1"/>
+      <c r="AF79" s="1">
+        <v>366</v>
+      </c>
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
       <c r="AI79" s="2"/>
@@ -9366,7 +9410,9 @@
       <c r="AE80" s="1">
         <v>0</v>
       </c>
-      <c r="AF80" s="1"/>
+      <c r="AF80" s="1">
+        <v>352</v>
+      </c>
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
       <c r="AI80" s="2"/>
@@ -9455,7 +9501,9 @@
       <c r="AE81" s="1">
         <v>0</v>
       </c>
-      <c r="AF81" s="1"/>
+      <c r="AF81" s="1">
+        <v>312</v>
+      </c>
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
       <c r="AI81" s="2"/>
@@ -9544,7 +9592,9 @@
       <c r="AE82" s="1">
         <v>0</v>
       </c>
-      <c r="AF82" s="1"/>
+      <c r="AF82" s="1">
+        <v>278</v>
+      </c>
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
       <c r="AI82" s="2"/>
@@ -9633,7 +9683,9 @@
       <c r="AE83" s="1">
         <v>0</v>
       </c>
-      <c r="AF83" s="1"/>
+      <c r="AF83" s="1">
+        <v>383</v>
+      </c>
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
       <c r="AI83" s="2"/>
@@ -9722,7 +9774,9 @@
       <c r="AE84" s="1">
         <v>0</v>
       </c>
-      <c r="AF84" s="1"/>
+      <c r="AF84" s="1">
+        <v>339</v>
+      </c>
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
       <c r="AI84" s="2"/>
@@ -9811,7 +9865,9 @@
       <c r="AE85" s="1">
         <v>0</v>
       </c>
-      <c r="AF85" s="1"/>
+      <c r="AF85" s="1">
+        <v>277</v>
+      </c>
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
       <c r="AI85" s="2"/>
@@ -9900,7 +9956,9 @@
       <c r="AE86" s="1">
         <v>0</v>
       </c>
-      <c r="AF86" s="1"/>
+      <c r="AF86" s="1">
+        <v>235</v>
+      </c>
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
       <c r="AI86" s="2"/>
@@ -9989,7 +10047,9 @@
       <c r="AE87" s="1">
         <v>0</v>
       </c>
-      <c r="AF87" s="1"/>
+      <c r="AF87" s="1">
+        <v>400</v>
+      </c>
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
       <c r="AI87" s="2"/>
@@ -10078,7 +10138,9 @@
       <c r="AE88" s="1">
         <v>0</v>
       </c>
-      <c r="AF88" s="1"/>
+      <c r="AF88" s="1">
+        <v>341</v>
+      </c>
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
       <c r="AI88" s="2"/>
@@ -10167,7 +10229,9 @@
       <c r="AE89" s="1">
         <v>0</v>
       </c>
-      <c r="AF89" s="1"/>
+      <c r="AF89" s="1">
+        <v>446</v>
+      </c>
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
       <c r="AI89" s="2"/>
@@ -10256,7 +10320,9 @@
       <c r="AE90" s="1">
         <v>0</v>
       </c>
-      <c r="AF90" s="1"/>
+      <c r="AF90" s="1">
+        <v>310</v>
+      </c>
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
       <c r="AI90" s="2"/>
@@ -10345,7 +10411,9 @@
       <c r="AE91" s="1">
         <v>0</v>
       </c>
-      <c r="AF91" s="1"/>
+      <c r="AF91" s="1">
+        <v>282</v>
+      </c>
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
@@ -10432,7 +10500,9 @@
         <v>0</v>
       </c>
       <c r="AE92" s="1"/>
-      <c r="AF92" s="1"/>
+      <c r="AF92" s="1">
+        <v>367</v>
+      </c>
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
@@ -10521,7 +10591,9 @@
       <c r="AE93" s="1">
         <v>0</v>
       </c>
-      <c r="AF93" s="1"/>
+      <c r="AF93" s="1">
+        <v>328</v>
+      </c>
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
       <c r="AI93" s="2"/>
@@ -10608,7 +10680,9 @@
         <v>0</v>
       </c>
       <c r="AE94" s="1"/>
-      <c r="AF94" s="1"/>
+      <c r="AF94" s="1">
+        <v>536</v>
+      </c>
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
@@ -10697,7 +10771,9 @@
       <c r="AE95" s="1">
         <v>0</v>
       </c>
-      <c r="AF95" s="1"/>
+      <c r="AF95" s="1">
+        <v>570</v>
+      </c>
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
@@ -10782,7 +10858,9 @@
       </c>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
-      <c r="AF96" s="1"/>
+      <c r="AF96" s="1">
+        <v>297</v>
+      </c>
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
       <c r="AI96" s="2"/>
@@ -10871,7 +10949,9 @@
       <c r="AE97" s="1">
         <v>0</v>
       </c>
-      <c r="AF97" s="1"/>
+      <c r="AF97" s="1">
+        <v>262</v>
+      </c>
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
       <c r="AI97" s="2"/>
@@ -10960,7 +11040,9 @@
       <c r="AE98" s="1">
         <v>0</v>
       </c>
-      <c r="AF98" s="1"/>
+      <c r="AF98" s="1">
+        <v>331</v>
+      </c>
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
       <c r="AI98" s="2"/>
@@ -11049,7 +11131,9 @@
       <c r="AE99" s="1">
         <v>0</v>
       </c>
-      <c r="AF99" s="1"/>
+      <c r="AF99" s="1">
+        <v>344</v>
+      </c>
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
       <c r="AI99" s="2"/>
@@ -11138,7 +11222,9 @@
       <c r="AE100" s="1">
         <v>0</v>
       </c>
-      <c r="AF100" s="1"/>
+      <c r="AF100" s="1">
+        <v>380</v>
+      </c>
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
       <c r="AI100" s="2"/>
@@ -11227,7 +11313,9 @@
       <c r="AE101" s="1">
         <v>0</v>
       </c>
-      <c r="AF101" s="1"/>
+      <c r="AF101" s="1">
+        <v>356</v>
+      </c>
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
       <c r="AI101" s="2"/>
@@ -11316,7 +11404,9 @@
       <c r="AE102" s="1">
         <v>0</v>
       </c>
-      <c r="AF102" s="1"/>
+      <c r="AF102" s="1">
+        <v>305</v>
+      </c>
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
       <c r="AI102" s="2"/>
@@ -11405,7 +11495,9 @@
       <c r="AE103" s="1">
         <v>0</v>
       </c>
-      <c r="AF103" s="1"/>
+      <c r="AF103" s="1">
+        <v>270</v>
+      </c>
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
       <c r="AI103" s="2"/>
@@ -11494,7 +11586,9 @@
       <c r="AE104" s="1">
         <v>0</v>
       </c>
-      <c r="AF104" s="1"/>
+      <c r="AF104" s="1">
+        <v>484</v>
+      </c>
       <c r="AG104" s="2"/>
       <c r="AH104" s="2"/>
       <c r="AI104" s="2"/>
@@ -11583,7 +11677,9 @@
       <c r="AE105" s="1">
         <v>0</v>
       </c>
-      <c r="AF105" s="1"/>
+      <c r="AF105" s="1">
+        <v>357</v>
+      </c>
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
       <c r="AI105" s="2"/>
@@ -11672,7 +11768,9 @@
       <c r="AE106" s="1">
         <v>0</v>
       </c>
-      <c r="AF106" s="1"/>
+      <c r="AF106" s="1">
+        <v>508</v>
+      </c>
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
       <c r="AI106" s="2"/>
@@ -11761,7 +11859,9 @@
       <c r="AE107" s="1">
         <v>0</v>
       </c>
-      <c r="AF107" s="1"/>
+      <c r="AF107" s="1">
+        <v>273</v>
+      </c>
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
       <c r="AI107" s="2"/>
@@ -11850,7 +11950,9 @@
       <c r="AE108" s="1">
         <v>0</v>
       </c>
-      <c r="AF108" s="1"/>
+      <c r="AF108" s="1">
+        <v>212</v>
+      </c>
       <c r="AG108" s="2"/>
       <c r="AH108" s="2"/>
       <c r="AI108" s="2"/>
@@ -11939,7 +12041,9 @@
       <c r="AE109" s="1">
         <v>0</v>
       </c>
-      <c r="AF109" s="1"/>
+      <c r="AF109" s="1">
+        <v>454</v>
+      </c>
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
@@ -12024,7 +12128,9 @@
       </c>
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
-      <c r="AF110" s="1"/>
+      <c r="AF110" s="1">
+        <v>483</v>
+      </c>
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
@@ -12113,7 +12219,9 @@
       <c r="AE111" s="1">
         <v>0</v>
       </c>
-      <c r="AF111" s="1"/>
+      <c r="AF111" s="1">
+        <v>310</v>
+      </c>
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
       <c r="AI111" s="2"/>
@@ -12200,7 +12308,9 @@
         <v>0</v>
       </c>
       <c r="AE112" s="1"/>
-      <c r="AF112" s="1"/>
+      <c r="AF112" s="1">
+        <v>285</v>
+      </c>
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
@@ -12289,7 +12399,9 @@
       <c r="AE113" s="1">
         <v>0</v>
       </c>
-      <c r="AF113" s="1"/>
+      <c r="AF113" s="1">
+        <v>264</v>
+      </c>
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
@@ -12376,7 +12488,9 @@
         <v>0</v>
       </c>
       <c r="AE114" s="1"/>
-      <c r="AF114" s="1"/>
+      <c r="AF114" s="1">
+        <v>257</v>
+      </c>
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
       <c r="AI114" s="2"/>
@@ -12457,7 +12571,9 @@
       <c r="AC115" s="1"/>
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
-      <c r="AF115" s="1"/>
+      <c r="AF115" s="1">
+        <v>331</v>
+      </c>
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
       <c r="AI115" s="2"/>
@@ -12536,7 +12652,9 @@
       <c r="AC116" s="1"/>
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
-      <c r="AF116" s="1"/>
+      <c r="AF116" s="1">
+        <v>312</v>
+      </c>
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
       <c r="AI116" s="2"/>
@@ -12615,7 +12733,9 @@
       <c r="AC117" s="1"/>
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
-      <c r="AF117" s="1"/>
+      <c r="AF117" s="1">
+        <v>342</v>
+      </c>
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
       <c r="AI117" s="2"/>
